--- a/GPT_MASB_Invigilators_Details.xlsx
+++ b/GPT_MASB_Invigilators_Details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,41 +447,51 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T. Rajeshwari (11008)</t>
+          <t>K. Bharat Kumar (11002), T. Rajeshwari (11008), M. Thirupathi (11009), A. Radha Krishna (11004), K. Naresh (11007)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S. VinodKumar (11011)</t>
+          <t>S. VinodKumar (11011), S. Krishna (11022), K. Priyanaka (11017), K. Shruthi (11021), Mohd Habeeb (11003)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P. Rakesh (11014), M. Suresh (11005)</t>
+          <t>T. GopiChand (11013), V. Shalini (11019), Mohd Riaz (11001), S. Nani (11016)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>K. Bharat Kumar (11002)</t>
+          <t>Mohd Afthab (11015), D. Akash (11012), M. Suresh (11005), siddiq (123456)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>105</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>P. Rakesh (11014), D. Praveen (11010), S. SatyaNarayana (11006), M. SaiVardhan (11020), N. Vijay Kumar (11018)</t>
         </is>
       </c>
     </row>
